--- a/report.xlsx
+++ b/report.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>Báo cáo tiNi điểm</t>
   </si>
   <si>
-    <t>Trung tâm: ALB</t>
-  </si>
-  <si>
-    <t>Ngày:2019-03-14</t>
+    <t>Trung tâm: Alb Long Biên</t>
+  </si>
+  <si>
+    <t>Ngày:2019-04-21</t>
   </si>
   <si>
     <t>Máy game</t>
@@ -68,79 +68,391 @@
     <t>EndSeri</t>
   </si>
   <si>
+    <t>BALL DROP1</t>
+  </si>
+  <si>
+    <t>2019-04-21 09:56:59</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>J 11632001</t>
+  </si>
+  <si>
+    <t>J 11636000</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bình</t>
+  </si>
+  <si>
+    <t>2019-04-21</t>
+  </si>
+  <si>
+    <t>F 12960001</t>
+  </si>
+  <si>
+    <t>F 13120000</t>
+  </si>
+  <si>
+    <t>TUBIN TWIST 2</t>
+  </si>
+  <si>
+    <t>2019-04-21 11:47:42</t>
+  </si>
+  <si>
+    <t>J 11576001</t>
+  </si>
+  <si>
+    <t>J 11580000</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hải</t>
+  </si>
+  <si>
+    <t>Tổng nhập:160000</t>
+  </si>
+  <si>
+    <t>TUBIN TWIST 3</t>
+  </si>
+  <si>
+    <t>2019-04-21 11:47:59</t>
+  </si>
+  <si>
+    <t>J 11520001</t>
+  </si>
+  <si>
+    <t>J 11524000</t>
+  </si>
+  <si>
+    <t>LUCKY BALL</t>
+  </si>
+  <si>
+    <t>2019-04-21 11:59:28</t>
+  </si>
+  <si>
+    <t>J 11676001</t>
+  </si>
+  <si>
+    <t>J 11680000</t>
+  </si>
+  <si>
+    <t>2019-04-21 12:08:50</t>
+  </si>
+  <si>
+    <t>J 11584001</t>
+  </si>
+  <si>
+    <t>J 11588000</t>
+  </si>
+  <si>
+    <t>FROGGER</t>
+  </si>
+  <si>
+    <t>2019-04-21 12:49:39</t>
+  </si>
+  <si>
+    <t>J 11552001</t>
+  </si>
+  <si>
+    <t>J 11556000</t>
+  </si>
+  <si>
+    <t>BALL DROP2</t>
+  </si>
+  <si>
+    <t>2019-04-21 13:02:34</t>
+  </si>
+  <si>
+    <t>J 11544001</t>
+  </si>
+  <si>
+    <t>J 11548000</t>
+  </si>
+  <si>
+    <t>2019-04-21 13:02:51</t>
+  </si>
+  <si>
+    <t>F 13052001</t>
+  </si>
+  <si>
+    <t>F 13056000</t>
+  </si>
+  <si>
+    <t>Kiddie Xball</t>
+  </si>
+  <si>
+    <t>2019-04-21 13:03:05</t>
+  </si>
+  <si>
+    <t>F 13048001</t>
+  </si>
+  <si>
+    <t>F 13052000</t>
+  </si>
+  <si>
+    <t>ICEBALL FX</t>
+  </si>
+  <si>
+    <t>2019-04-21 13:35:58</t>
+  </si>
+  <si>
+    <t>F 13112001</t>
+  </si>
+  <si>
+    <t>F 13116000</t>
+  </si>
+  <si>
+    <t>2019-04-21 13:36:15</t>
+  </si>
+  <si>
+    <t>F 13060001</t>
+  </si>
+  <si>
+    <t>F 13064000</t>
+  </si>
+  <si>
+    <t>SAFARI RANGER</t>
+  </si>
+  <si>
+    <t>2019-04-21 13:56:27</t>
+  </si>
+  <si>
+    <t>F 13108001</t>
+  </si>
+  <si>
+    <t>F 13112000</t>
+  </si>
+  <si>
+    <t>TUBIN TWIST</t>
+  </si>
+  <si>
+    <t>2019-04-21 14:11:33</t>
+  </si>
+  <si>
+    <t>Chieu</t>
+  </si>
+  <si>
+    <t>F 13064001</t>
+  </si>
+  <si>
+    <t>F 13068000</t>
+  </si>
+  <si>
+    <t>2019-04-21 14:13:07</t>
+  </si>
+  <si>
+    <t>F 13116001</t>
+  </si>
+  <si>
+    <t>PIRATES HOOK</t>
+  </si>
+  <si>
+    <t>2019-04-21 14:16:19</t>
+  </si>
+  <si>
+    <t>F 13088001</t>
+  </si>
+  <si>
+    <t>F 13092000</t>
+  </si>
+  <si>
+    <t>2019-04-21 14:20:31</t>
+  </si>
+  <si>
+    <t>F 13072001</t>
+  </si>
+  <si>
+    <t>F 13076000</t>
+  </si>
+  <si>
+    <t>2019-04-21 15:13:07</t>
+  </si>
+  <si>
+    <t>F 13044001</t>
+  </si>
+  <si>
+    <t>F 13048000</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Nam</t>
+  </si>
+  <si>
     <t>DUO DRIVE 2</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>Chieu</t>
-  </si>
-  <si>
-    <t>A 12123001</t>
-  </si>
-  <si>
-    <t>A 12127000</t>
-  </si>
-  <si>
-    <t>Vu van Nam</t>
-  </si>
-  <si>
-    <t>A 12283000</t>
-  </si>
-  <si>
-    <t>BALL DROP2</t>
-  </si>
-  <si>
-    <t>A 12155001</t>
-  </si>
-  <si>
-    <t>A 12159000</t>
-  </si>
-  <si>
-    <t>2019-03-13</t>
-  </si>
-  <si>
-    <t>BALL DROP1</t>
-  </si>
-  <si>
-    <t>Sang</t>
-  </si>
-  <si>
-    <t>A 12175001</t>
-  </si>
-  <si>
-    <t>A 12179000</t>
-  </si>
-  <si>
-    <t>Nguyen văn Bình</t>
-  </si>
-  <si>
-    <t>2019-03-14</t>
-  </si>
-  <si>
-    <t>LUCKY BALL</t>
-  </si>
-  <si>
-    <t>A 12187001</t>
-  </si>
-  <si>
-    <t>A 12191000</t>
-  </si>
-  <si>
-    <t>ICEBALL FX 3</t>
-  </si>
-  <si>
-    <t>A 12183001</t>
-  </si>
-  <si>
-    <t>A 12187000</t>
-  </si>
-  <si>
-    <t>A 12127001</t>
-  </si>
-  <si>
-    <t>A 12131000</t>
+    <t>2019-04-21 15:23:36</t>
+  </si>
+  <si>
+    <t>F 13100001</t>
+  </si>
+  <si>
+    <t>F 13104000</t>
+  </si>
+  <si>
+    <t>2019-04-21 15:33:50</t>
+  </si>
+  <si>
+    <t>F 12996001</t>
+  </si>
+  <si>
+    <t>F 13000000</t>
+  </si>
+  <si>
+    <t>2019-04-21 15:57:24</t>
+  </si>
+  <si>
+    <t>F 13104001</t>
+  </si>
+  <si>
+    <t>F 13108000</t>
+  </si>
+  <si>
+    <t>2019-04-21 15:58:31</t>
+  </si>
+  <si>
+    <t>F 13092001</t>
+  </si>
+  <si>
+    <t>F 13096000</t>
+  </si>
+  <si>
+    <t>2019-04-21 17:13:20</t>
+  </si>
+  <si>
+    <t>F 13076001</t>
+  </si>
+  <si>
+    <t>F 13080000</t>
+  </si>
+  <si>
+    <t>Vũ Văn Nam</t>
+  </si>
+  <si>
+    <t>2019-04-21 17:23:51</t>
+  </si>
+  <si>
+    <t>F 13080001</t>
+  </si>
+  <si>
+    <t>F 13084000</t>
+  </si>
+  <si>
+    <t>2019-04-21 17:47:55</t>
+  </si>
+  <si>
+    <t>F 13040001</t>
+  </si>
+  <si>
+    <t>F 13044000</t>
+  </si>
+  <si>
+    <t>2019-04-21 17:52:45</t>
+  </si>
+  <si>
+    <t>F 13032001</t>
+  </si>
+  <si>
+    <t>F 13036000</t>
+  </si>
+  <si>
+    <t>PIRATES HOOK 2</t>
+  </si>
+  <si>
+    <t>2019-04-21 17:53:03</t>
+  </si>
+  <si>
+    <t>F 12976001</t>
+  </si>
+  <si>
+    <t>F 12980000</t>
+  </si>
+  <si>
+    <t>2019-04-21 18:22:10</t>
+  </si>
+  <si>
+    <t>F 13036001</t>
+  </si>
+  <si>
+    <t>F 13040000</t>
+  </si>
+  <si>
+    <t>2019-04-21 18:54:27</t>
+  </si>
+  <si>
+    <t>F 12972001</t>
+  </si>
+  <si>
+    <t>F 12976000</t>
+  </si>
+  <si>
+    <t>2019-04-21 19:18:25</t>
+  </si>
+  <si>
+    <t>F 12964000</t>
+  </si>
+  <si>
+    <t>2019-04-21 19:21:54</t>
+  </si>
+  <si>
+    <t>F 12984001</t>
+  </si>
+  <si>
+    <t>F 12988000</t>
+  </si>
+  <si>
+    <t>SPEED OF LIGHT</t>
+  </si>
+  <si>
+    <t>2019-04-21 20:19:36</t>
+  </si>
+  <si>
+    <t>F 12988001</t>
+  </si>
+  <si>
+    <t>F 12992000</t>
+  </si>
+  <si>
+    <t>2019-04-21 20:19:49</t>
+  </si>
+  <si>
+    <t>F 12992001</t>
+  </si>
+  <si>
+    <t>F 12996000</t>
+  </si>
+  <si>
+    <t>2019-04-21 20:30:53</t>
+  </si>
+  <si>
+    <t>F 13028001</t>
+  </si>
+  <si>
+    <t>F 13032000</t>
+  </si>
+  <si>
+    <t>2019-04-21 20:51:31</t>
+  </si>
+  <si>
+    <t>F 13024001</t>
+  </si>
+  <si>
+    <t>F 13028000</t>
+  </si>
+  <si>
+    <t>CAR RACING</t>
+  </si>
+  <si>
+    <t>2019-04-21 21:00:42</t>
+  </si>
+  <si>
+    <t>F 13020001</t>
+  </si>
+  <si>
+    <t>F 13024000</t>
+  </si>
+  <si>
+    <t>Tổng xuất:140000</t>
   </si>
 </sst>
 </file>
@@ -217,8 +529,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
@@ -535,7 +850,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="N5" sqref="N5"/>
@@ -543,261 +858,918 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4">
+        <v>200000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>60000</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="4">
         <v>160000</v>
       </c>
-      <c r="J5" s="3">
-        <v>152000</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="3">
-        <v>160000</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>23</v>
+      <c r="M5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3">
-        <v>152000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="3">
-        <v>136000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
+      <c r="B36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="4">
+        <v>4000</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="D40" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
